--- a/Requis_Remise/Tests.xlsx
+++ b/Requis_Remise/Tests.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1470001\Desktop\projetapex\Requis_Remise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\projetapex\Requis_Remise\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Liste inventaires (205)" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="203">
   <si>
     <t>Test sur la création d'utilisateur</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Numéro (No_Page)</t>
-  </si>
-  <si>
-    <t>S-User-1 (520)</t>
   </si>
   <si>
     <t>Créer utilisateur</t>
@@ -79,9 +76,6 @@
 Redirection vers page 520 (Création réussie)</t>
   </si>
   <si>
-    <t>S-User-2 (520)</t>
-  </si>
-  <si>
     <t>Saisir Allan comme nom d'utilisateur</t>
   </si>
   <si>
@@ -98,57 +92,12 @@
   </si>
   <si>
     <t>Veuillez saisir un mot de passe</t>
-  </si>
-  <si>
-    <t>Msg-01</t>
-  </si>
-  <si>
-    <t>Msg-02</t>
-  </si>
-  <si>
-    <t>Msg-03</t>
-  </si>
-  <si>
-    <t>Msg-04</t>
-  </si>
-  <si>
-    <t>Msg-05</t>
-  </si>
-  <si>
-    <t>Msg-06</t>
-  </si>
-  <si>
-    <t>Msg-07</t>
-  </si>
-  <si>
-    <t>Msg-08</t>
-  </si>
-  <si>
-    <t>Msg-09</t>
-  </si>
-  <si>
-    <t>Msg-10</t>
-  </si>
-  <si>
-    <t>Msg-11</t>
-  </si>
-  <si>
-    <t>Msg-12</t>
-  </si>
-  <si>
-    <t>Msg-13</t>
-  </si>
-  <si>
-    <t>Msg-14</t>
   </si>
   <si>
     <t>Création impossible
 Affichage Msg-01</t>
   </si>
   <si>
-    <t>S-User-3 (520)</t>
-  </si>
-  <si>
     <t>Saisir Allan1 comme nom d'utilisateur</t>
   </si>
   <si>
@@ -159,9 +108,6 @@
 Affichage Msg-02</t>
   </si>
   <si>
-    <t>S-User-4 (520)</t>
-  </si>
-  <si>
     <t>Cliquer sur le niveau de droit d'Allan</t>
   </si>
   <si>
@@ -177,24 +123,15 @@
     <t>Le niveau de droit d'Allan est désormais Edit</t>
   </si>
   <si>
-    <t>T-User-1(510)</t>
-  </si>
-  <si>
     <t>Aucun</t>
   </si>
   <si>
     <t>BOB</t>
   </si>
   <si>
-    <t>T-User-2(510)</t>
-  </si>
-  <si>
     <t>Champ Traité --&gt; Valeur</t>
   </si>
   <si>
-    <t>T-User-3(510)</t>
-  </si>
-  <si>
     <t>Recherche -- BO</t>
   </si>
   <si>
@@ -204,18 +141,12 @@
     <t>aucun</t>
   </si>
   <si>
-    <t>T-User-4(510)</t>
-  </si>
-  <si>
     <t>Recherche -- bo</t>
   </si>
   <si>
     <t>Mode application -- Full access to all</t>
   </si>
   <si>
-    <t>T-User-5(510)</t>
-  </si>
-  <si>
     <t>Mode application -- Public read only</t>
   </si>
   <si>
@@ -223,6 +154,503 @@
   </si>
   <si>
     <t>Fait par Michaël Trahan</t>
+  </si>
+  <si>
+    <t>Liste option --&gt; Camisoles</t>
+  </si>
+  <si>
+    <t>Liste option --&gt; Shorts</t>
+  </si>
+  <si>
+    <t>Liste option --&gt; Inventaire</t>
+  </si>
+  <si>
+    <t>Bouton ajouter une camisole</t>
+  </si>
+  <si>
+    <t>Bouton ajouter un short</t>
+  </si>
+  <si>
+    <t>Bouton ajouter un objet</t>
+  </si>
+  <si>
+    <t>Redirection sur la page 210</t>
+  </si>
+  <si>
+    <t>Redirection sur la page 215</t>
+  </si>
+  <si>
+    <t>Redirection sur la page 220</t>
+  </si>
+  <si>
+    <t>Cliquer sur entête de colonne</t>
+  </si>
+  <si>
+    <t>Le tri se fait sur la colonne</t>
+  </si>
+  <si>
+    <t>S'applique à toutes les colonnes</t>
+  </si>
+  <si>
+    <t>Numéro de camisole --&gt; 0</t>
+  </si>
+  <si>
+    <t>Numéro de camisole --&gt; 1</t>
+  </si>
+  <si>
+    <t>Numéro de camisole --&gt; 10</t>
+  </si>
+  <si>
+    <t>Numéro de camisole --&gt; 15</t>
+  </si>
+  <si>
+    <t>Numéro de camisole --&gt; 16</t>
+  </si>
+  <si>
+    <t>Numéro de camisole --&gt; 50</t>
+  </si>
+  <si>
+    <t>Numéro de camisole --&gt; 55</t>
+  </si>
+  <si>
+    <t>Numéro de camisole --&gt; 56</t>
+  </si>
+  <si>
+    <t>Veuillez entrer un numéro de camisole qui est conforme</t>
+  </si>
+  <si>
+    <t>Cliquer sur une icône de camisole</t>
+  </si>
+  <si>
+    <t>Redirection sur la page 210 avec les données appropriées</t>
+  </si>
+  <si>
+    <t>Cliquer sur une icône de cône</t>
+  </si>
+  <si>
+    <t>Cliquer sur une icône de short</t>
+  </si>
+  <si>
+    <t>Redirection sur la page 215 avec les données appropriées</t>
+  </si>
+  <si>
+    <t>Redirection sur la page 220 avec les données appropriées</t>
+  </si>
+  <si>
+    <t>*bug #1</t>
+  </si>
+  <si>
+    <t>Veuillez entrer la taille de la camisole</t>
+  </si>
+  <si>
+    <t>Veuillez entrer la couleur de la camisole</t>
+  </si>
+  <si>
+    <t>Veuillez entrer le sexe de la camisole</t>
+  </si>
+  <si>
+    <t>Veuillez entrer la catégorie d'âge de la camisole</t>
+  </si>
+  <si>
+    <t>User-Msg-01</t>
+  </si>
+  <si>
+    <t>User-Msg-02</t>
+  </si>
+  <si>
+    <t>Camisole-Msg-03</t>
+  </si>
+  <si>
+    <t>Camisole-Msg-04</t>
+  </si>
+  <si>
+    <t>Camisole-Msg-05</t>
+  </si>
+  <si>
+    <t>Camisole-Msg-06</t>
+  </si>
+  <si>
+    <t>Camisole-Msg-07</t>
+  </si>
+  <si>
+    <t>Création impossible
+Affichage User-Msg-01</t>
+  </si>
+  <si>
+    <t>Création impossible
+Affichage User-Msg-02</t>
+  </si>
+  <si>
+    <t>T-Camisole-1</t>
+  </si>
+  <si>
+    <t>T-Camisole-2</t>
+  </si>
+  <si>
+    <t>T-Camisole-3</t>
+  </si>
+  <si>
+    <t>T-Camisole-4</t>
+  </si>
+  <si>
+    <t>T-Camisole-5</t>
+  </si>
+  <si>
+    <t>T-Camisole-6</t>
+  </si>
+  <si>
+    <t>T-Camisole-7</t>
+  </si>
+  <si>
+    <t>T-Camisole-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T-Lst-Inv-01 </t>
+  </si>
+  <si>
+    <t>T-Lst-Inv-02</t>
+  </si>
+  <si>
+    <t>T-Lst-Inv-03</t>
+  </si>
+  <si>
+    <t>T-Lst-Inv-04</t>
+  </si>
+  <si>
+    <t>T-Lst-Inv-05</t>
+  </si>
+  <si>
+    <t>T-Lst-Inv-06</t>
+  </si>
+  <si>
+    <t>T-Lst-Inv-07</t>
+  </si>
+  <si>
+    <t>T-Lst-Inv-08</t>
+  </si>
+  <si>
+    <t>T-Lst-Inv-09</t>
+  </si>
+  <si>
+    <t>T-Lst-Inv-10</t>
+  </si>
+  <si>
+    <t>S-User-1</t>
+  </si>
+  <si>
+    <t>S-User-2</t>
+  </si>
+  <si>
+    <t>S-User-3</t>
+  </si>
+  <si>
+    <t>S-User-4</t>
+  </si>
+  <si>
+    <t>Numéro</t>
+  </si>
+  <si>
+    <t>T-User-1</t>
+  </si>
+  <si>
+    <t>T-User-2</t>
+  </si>
+  <si>
+    <t>T-User-3</t>
+  </si>
+  <si>
+    <t>T-User-4</t>
+  </si>
+  <si>
+    <t>T-User-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numéro </t>
+  </si>
+  <si>
+    <t>T-Camisole-9</t>
+  </si>
+  <si>
+    <t>T-Camisole-10</t>
+  </si>
+  <si>
+    <t>T-Camisole-11</t>
+  </si>
+  <si>
+    <t>T-Camisole-12</t>
+  </si>
+  <si>
+    <t>T-Camisole-13</t>
+  </si>
+  <si>
+    <t>T-Camisole-14</t>
+  </si>
+  <si>
+    <t>T-Camisole-15</t>
+  </si>
+  <si>
+    <t>T-Camisole-16</t>
+  </si>
+  <si>
+    <t>Catégorie d'âge --&gt; Rien sélectionner</t>
+  </si>
+  <si>
+    <t>Sexe --&gt; Rien cocher</t>
+  </si>
+  <si>
+    <t>Couleur --&gt; Rien sélectionner</t>
+  </si>
+  <si>
+    <t>Taille --&gt; Rien sélectionner</t>
+  </si>
+  <si>
+    <t>Catégorie d'âge --&gt; 5-6</t>
+  </si>
+  <si>
+    <t>Sexe --&gt; Homme</t>
+  </si>
+  <si>
+    <t>Couleur --&gt; Bleu</t>
+  </si>
+  <si>
+    <t>Taille --&gt; Large</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La catégorie d'âge est acceptée </t>
+  </si>
+  <si>
+    <t>Le numéro est accepté</t>
+  </si>
+  <si>
+    <t>Le sexe est accepté</t>
+  </si>
+  <si>
+    <t>La couleur est acceptée</t>
+  </si>
+  <si>
+    <t>La taille est acceptée</t>
+  </si>
+  <si>
+    <t>S-Camisole-1</t>
+  </si>
+  <si>
+    <t>S-Camisole-2</t>
+  </si>
+  <si>
+    <t>S-Camisole-3</t>
+  </si>
+  <si>
+    <t>S-Camisole-4</t>
+  </si>
+  <si>
+    <t>(P205) Ajouter une camisole</t>
+  </si>
+  <si>
+    <t>Saisir No camisole : 20</t>
+  </si>
+  <si>
+    <t>Saisir Catégorie d'âge : 3-4</t>
+  </si>
+  <si>
+    <t>Saisir Sexe : Femme</t>
+  </si>
+  <si>
+    <t>Saisir Couleur : Violet</t>
+  </si>
+  <si>
+    <t>Saisir Taille : Small</t>
+  </si>
+  <si>
+    <t>Redirection vers la page 210</t>
+  </si>
+  <si>
+    <t>Changer la catégorie d'âge pour 1-2</t>
+  </si>
+  <si>
+    <t>(P205) Cliquer sur la camisole créée au scénario S-Camisole-1</t>
+  </si>
+  <si>
+    <t>Cliquer sur le bouton annuler</t>
+  </si>
+  <si>
+    <t>Cliquer sur le bouton enregistrer</t>
+  </si>
+  <si>
+    <t>Cliquer sur le bouton supprimer</t>
+  </si>
+  <si>
+    <t>Confirmer la suppression</t>
+  </si>
+  <si>
+    <t>Redirection vers la page 210 avec les données de la camisole</t>
+  </si>
+  <si>
+    <t>Fenêtre de confirmation de suppression</t>
+  </si>
+  <si>
+    <t>Annuler la suppression</t>
+  </si>
+  <si>
+    <t>La fenêtre de confirmation de suppression disparaît
+Demeure sur la page 210</t>
+  </si>
+  <si>
+    <t>La suppression se fait avec succès
+Redirection vers la page 205</t>
+  </si>
+  <si>
+    <t>La mise à jour se fait avec succès</t>
+  </si>
+  <si>
+    <t>La création se fait avec succès
+Redirection vers la page 205</t>
+  </si>
+  <si>
+    <t>Redirection vers la page 205 sans sauvegarder les changements</t>
+  </si>
+  <si>
+    <t>Changer la catégorie d'âge pour 3-4</t>
+  </si>
+  <si>
+    <t>T-Short-1</t>
+  </si>
+  <si>
+    <t>Short-Msg-01</t>
+  </si>
+  <si>
+    <t>Veuillez entrer la taille du short</t>
+  </si>
+  <si>
+    <t>Short-Msg-02</t>
+  </si>
+  <si>
+    <t>Veuillez entrer la quantité du short</t>
+  </si>
+  <si>
+    <t>Short-Msg-03</t>
+  </si>
+  <si>
+    <t>Taille --&gt; Medium</t>
+  </si>
+  <si>
+    <t>T-Short-2</t>
+  </si>
+  <si>
+    <t>T-Short-3</t>
+  </si>
+  <si>
+    <t>T-Short-4</t>
+  </si>
+  <si>
+    <t>T-Short-5</t>
+  </si>
+  <si>
+    <t>T-Short-6</t>
+  </si>
+  <si>
+    <t>Quantité --&gt; Rien sélectionner</t>
+  </si>
+  <si>
+    <t>Quantité --&gt; abc</t>
+  </si>
+  <si>
+    <t>Quantité --&gt; 1000</t>
+  </si>
+  <si>
+    <t>Quantité --&gt; 100</t>
+  </si>
+  <si>
+    <t>Le champs empêche la saisie du 4e chiffre</t>
+  </si>
+  <si>
+    <t>La quantité est acceptée</t>
+  </si>
+  <si>
+    <t>Quantité must be Numeric</t>
+  </si>
+  <si>
+    <t>S-Short-1</t>
+  </si>
+  <si>
+    <t>(P205) Cliquer sur l'icône du short Small</t>
+  </si>
+  <si>
+    <t>Changer la quantité pour 0</t>
+  </si>
+  <si>
+    <t>La quantité de short ne peut être inférieur que la quantité empruntée de ce short.</t>
+  </si>
+  <si>
+    <t>Redirection vers la page 215 avec les données du short Small</t>
+  </si>
+  <si>
+    <t>S-Short-2</t>
+  </si>
+  <si>
+    <t>(P205) Ajouter un short</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redirection vers la page 215 </t>
+  </si>
+  <si>
+    <t>Saisir la taille : Small</t>
+  </si>
+  <si>
+    <t>Saisir la quantité : 5</t>
+  </si>
+  <si>
+    <t>Veuillez modifier l'entré de short appropriée au lieu d'en créer une seconde.</t>
+  </si>
+  <si>
+    <t>Short-Msg-04</t>
+  </si>
+  <si>
+    <t>Cliquer sur le bouton créer</t>
+  </si>
+  <si>
+    <t>ORA-02292: integrity constraint (PR0104.FK_ID_SHORTS_PRETS) violated - child record found</t>
+  </si>
+  <si>
+    <t>Short-Msg-05</t>
+  </si>
+  <si>
+    <t>S-Short-3</t>
+  </si>
+  <si>
+    <t>T-Inventaire-1</t>
+  </si>
+  <si>
+    <t>T-Inventaire-2</t>
+  </si>
+  <si>
+    <t>T-Inventaire-3</t>
+  </si>
+  <si>
+    <t>T-Inventaire-4</t>
+  </si>
+  <si>
+    <t>T-Inventaire-5</t>
+  </si>
+  <si>
+    <t>T-Inventaire-6</t>
+  </si>
+  <si>
+    <t>Objet-Msg-01</t>
+  </si>
+  <si>
+    <t>Objet-Msg-02</t>
+  </si>
+  <si>
+    <t>Objet-Msg-03</t>
+  </si>
+  <si>
+    <t>Veuillez entrer la description de l'objet</t>
+  </si>
+  <si>
+    <t>Veuillez entrer la couleur de l'objet</t>
+  </si>
+  <si>
+    <t>Veuillez entrer la quantité de l'objet</t>
   </si>
 </sst>
 </file>
@@ -258,7 +686,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -327,11 +755,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -341,35 +839,1010 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="69">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -380,6 +1853,123 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tableau8" displayName="Tableau8" ref="A4:D14" totalsRowShown="0" headerRowDxfId="32" dataDxfId="33" headerRowBorderDxfId="38" tableBorderDxfId="39">
+  <autoFilter ref="A4:D14"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Numéro (No_Page)" dataDxfId="37"/>
+    <tableColumn id="2" name="Champ Traité --&gt; Valeur" dataDxfId="36"/>
+    <tableColumn id="3" name="Résultat attendu" dataDxfId="35"/>
+    <tableColumn id="4" name="Résultat obtenu" dataDxfId="34"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau5" displayName="Tableau5" ref="A23:D44" totalsRowShown="0" headerRowDxfId="48" headerRowBorderDxfId="51" tableBorderDxfId="52">
+  <autoFilter ref="A23:D44"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Numéro " dataDxfId="50"/>
+    <tableColumn id="2" name="Manipulations" dataDxfId="49"/>
+    <tableColumn id="3" name="Résultat attendu"/>
+    <tableColumn id="4" name="Résultat obtenu"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tableau6" displayName="Tableau6" ref="A4:D20" totalsRowShown="0" headerRowDxfId="47" headerRowBorderDxfId="45" tableBorderDxfId="46" totalsRowBorderDxfId="44">
+  <autoFilter ref="A4:D20"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Numéro " dataDxfId="43"/>
+    <tableColumn id="2" name="Champ Traité --&gt; Valeur" dataDxfId="42"/>
+    <tableColumn id="3" name="Résultat attendu" dataDxfId="41"/>
+    <tableColumn id="4" name="Résultat obtenu" dataDxfId="40"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A4:D10" totalsRowShown="0" headerRowDxfId="61" headerRowBorderDxfId="67" tableBorderDxfId="68" totalsRowBorderDxfId="66">
+  <autoFilter ref="A4:D10"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Numéro " dataDxfId="65"/>
+    <tableColumn id="2" name="Champ Traité --&gt; Valeur" dataDxfId="64"/>
+    <tableColumn id="3" name="Résultat attendu" dataDxfId="63"/>
+    <tableColumn id="4" name="Résultat obtenu" dataDxfId="62"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A13:D27" totalsRowShown="0" headerRowDxfId="53" headerRowBorderDxfId="59" tableBorderDxfId="60" totalsRowBorderDxfId="58">
+  <autoFilter ref="A13:D27"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Numéro " dataDxfId="57"/>
+    <tableColumn id="2" name="Manipulations" dataDxfId="56"/>
+    <tableColumn id="3" name="Résultat attendu" dataDxfId="55"/>
+    <tableColumn id="4" name="Résultat obtenu" dataDxfId="54"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tableau312" displayName="Tableau312" ref="A4:D10" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+  <autoFilter ref="A4:D10"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Numéro " dataDxfId="11"/>
+    <tableColumn id="2" name="Champ Traité --&gt; Valeur" dataDxfId="10"/>
+    <tableColumn id="3" name="Résultat attendu" dataDxfId="9"/>
+    <tableColumn id="4" name="Résultat obtenu" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tableau413" displayName="Tableau413" ref="A13:D17" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="A13:D17"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Numéro " dataDxfId="3"/>
+    <tableColumn id="2" name="Manipulations" dataDxfId="2"/>
+    <tableColumn id="3" name="Résultat attendu" dataDxfId="1"/>
+    <tableColumn id="4" name="Résultat obtenu" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tableau9" displayName="Tableau9" ref="A4:D9" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="30" tableBorderDxfId="31" totalsRowBorderDxfId="29">
+  <autoFilter ref="A4:D9"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Numéro" dataDxfId="28"/>
+    <tableColumn id="2" name="Champ Traité --&gt; Valeur" dataDxfId="27"/>
+    <tableColumn id="3" name="Résultat attendu" dataDxfId="26"/>
+    <tableColumn id="4" name="Résultat obtenu" dataDxfId="25"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tableau10" displayName="Tableau10" ref="A12:D33" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="22" tableBorderDxfId="23" totalsRowBorderDxfId="21">
+  <autoFilter ref="A12:D33"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Numéro" dataDxfId="20"/>
+    <tableColumn id="2" name="Manipulations" dataDxfId="19"/>
+    <tableColumn id="3" name="Résultat attendu" dataDxfId="18"/>
+    <tableColumn id="4" name="Résultat obtenu" dataDxfId="17"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -645,10 +2235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A4:D7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,17 +2247,18 @@
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
     <col min="4" max="4" width="57.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -675,7 +2266,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -683,46 +2274,688 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="10" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C23" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D23" s="15" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="23"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="23"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="23"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="21"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="21"/>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" s="21"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -730,87 +2963,550 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A22:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="3" max="4" width="75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="A1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="28"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>189</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
+    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="3" max="4" width="75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="A1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="28"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="29"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -842,8 +3538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,12 +3551,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="A1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -879,87 +3575,87 @@
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="A4" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>46</v>
+      <c r="A5" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>29</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>49</v>
+      <c r="A6" s="32" t="s">
+        <v>104</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>48</v>
+        <v>29</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>51</v>
+      <c r="A7" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>28</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>55</v>
+      <c r="A8" s="32" t="s">
+        <v>106</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>60</v>
+        <v>37</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>60</v>
+      <c r="A9" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -971,402 +3667,460 @@
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>13</v>
+      <c r="D17" s="30" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>14</v>
+      <c r="A19" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>35</v>
+        <v>19</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>36</v>
+      <c r="A25" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>40</v>
+      <c r="A31" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>45</v>
+      <c r="A33" s="17"/>
+      <c r="B33" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A30:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="41" customWidth="1"/>
+    <col min="4" max="4" width="61" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="A1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+        <v>157</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+        <v>159</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+        <v>161</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+        <v>186</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>199</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Requis_Remise/Tests.xlsx
+++ b/Requis_Remise/Tests.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Liste inventaires (205)" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="222">
   <si>
     <t>Test sur la création d'utilisateur</t>
   </si>
@@ -644,13 +644,71 @@
     <t>Objet-Msg-03</t>
   </si>
   <si>
-    <t>Veuillez entrer la description de l'objet</t>
-  </si>
-  <si>
     <t>Veuillez entrer la couleur de l'objet</t>
   </si>
   <si>
     <t>Veuillez entrer la quantité de l'objet</t>
+  </si>
+  <si>
+    <t>Veuillez entrer le nom de l'objet</t>
+  </si>
+  <si>
+    <t>Objet --&gt; Rien saisir</t>
+  </si>
+  <si>
+    <t>Objet --&gt; Cône</t>
+  </si>
+  <si>
+    <t>Couleur --&gt; Orange</t>
+  </si>
+  <si>
+    <t>Quantité --&gt; 10000</t>
+  </si>
+  <si>
+    <t>T-Inventaire-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantité --&gt;abc </t>
+  </si>
+  <si>
+    <t>La quantité de short ne peut pas être inférieur que la quantité empruntée</t>
+  </si>
+  <si>
+    <t>Short-Msg-06</t>
+  </si>
+  <si>
+    <t>Quantité --&gt; Rien entrer</t>
+  </si>
+  <si>
+    <t>T-Inventaire-8</t>
+  </si>
+  <si>
+    <t>Objet-Msg-04</t>
+  </si>
+  <si>
+    <t>Seulement les nombres sont acceptés</t>
+  </si>
+  <si>
+    <t>Objet-Msg-05</t>
+  </si>
+  <si>
+    <t>Short-Msg-07</t>
+  </si>
+  <si>
+    <t>Objet-Msg-04
+Objet-Msg-05</t>
+  </si>
+  <si>
+    <t>Quantité accepté</t>
+  </si>
+  <si>
+    <t>Le champs limite le nombre à 4 chiffres</t>
+  </si>
+  <si>
+    <t>Couleur acceptée</t>
+  </si>
+  <si>
+    <t>Nom de l'objet accepté</t>
   </si>
 </sst>
 </file>
@@ -686,7 +744,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -825,11 +883,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -844,18 +911,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -878,15 +933,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -898,6 +944,32 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1097,13 +1169,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1113,6 +1178,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1138,6 +1210,104 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1233,13 +1403,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1249,6 +1412,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1350,13 +1520,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1366,6 +1529,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1391,35 +1561,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1496,13 +1637,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1512,6 +1646,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1537,6 +1678,104 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1593,6 +1832,9 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1600,9 +1842,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1628,72 +1867,16 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1703,23 +1886,10 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1742,104 +1912,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -1856,24 +1928,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tableau8" displayName="Tableau8" ref="A4:D14" totalsRowShown="0" headerRowDxfId="32" dataDxfId="33" headerRowBorderDxfId="38" tableBorderDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tableau8" displayName="Tableau8" ref="A4:D14" totalsRowShown="0" headerRowDxfId="68" dataDxfId="66" headerRowBorderDxfId="67" tableBorderDxfId="65">
   <autoFilter ref="A4:D14"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Numéro (No_Page)" dataDxfId="37"/>
-    <tableColumn id="2" name="Champ Traité --&gt; Valeur" dataDxfId="36"/>
-    <tableColumn id="3" name="Résultat attendu" dataDxfId="35"/>
-    <tableColumn id="4" name="Résultat obtenu" dataDxfId="34"/>
+    <tableColumn id="1" name="Numéro (No_Page)" dataDxfId="64"/>
+    <tableColumn id="2" name="Champ Traité --&gt; Valeur" dataDxfId="63"/>
+    <tableColumn id="3" name="Résultat attendu" dataDxfId="62"/>
+    <tableColumn id="4" name="Résultat obtenu" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau5" displayName="Tableau5" ref="A23:D44" totalsRowShown="0" headerRowDxfId="48" headerRowBorderDxfId="51" tableBorderDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau5" displayName="Tableau5" ref="A23:D44" totalsRowShown="0" headerRowDxfId="60" headerRowBorderDxfId="59" tableBorderDxfId="58">
   <autoFilter ref="A23:D44"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Numéro " dataDxfId="50"/>
-    <tableColumn id="2" name="Manipulations" dataDxfId="49"/>
+    <tableColumn id="1" name="Numéro " dataDxfId="57"/>
+    <tableColumn id="2" name="Manipulations" dataDxfId="56"/>
     <tableColumn id="3" name="Résultat attendu"/>
     <tableColumn id="4" name="Résultat obtenu"/>
   </tableColumns>
@@ -1882,8 +1954,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tableau6" displayName="Tableau6" ref="A4:D20" totalsRowShown="0" headerRowDxfId="47" headerRowBorderDxfId="45" tableBorderDxfId="46" totalsRowBorderDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tableau6" displayName="Tableau6" ref="A4:D20" totalsRowShown="0" headerRowDxfId="55" headerRowBorderDxfId="54" tableBorderDxfId="53" totalsRowBorderDxfId="52">
   <autoFilter ref="A4:D20"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Numéro " dataDxfId="51"/>
+    <tableColumn id="2" name="Champ Traité --&gt; Valeur" dataDxfId="50"/>
+    <tableColumn id="3" name="Résultat attendu" dataDxfId="49"/>
+    <tableColumn id="4" name="Résultat obtenu" dataDxfId="48"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A4:D10" totalsRowShown="0" headerRowDxfId="47" headerRowBorderDxfId="46" tableBorderDxfId="45" totalsRowBorderDxfId="44">
+  <autoFilter ref="A4:D10"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Numéro " dataDxfId="43"/>
     <tableColumn id="2" name="Champ Traité --&gt; Valeur" dataDxfId="42"/>
@@ -1894,48 +1979,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A4:D10" totalsRowShown="0" headerRowDxfId="61" headerRowBorderDxfId="67" tableBorderDxfId="68" totalsRowBorderDxfId="66">
-  <autoFilter ref="A4:D10"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Numéro " dataDxfId="65"/>
-    <tableColumn id="2" name="Champ Traité --&gt; Valeur" dataDxfId="64"/>
-    <tableColumn id="3" name="Résultat attendu" dataDxfId="63"/>
-    <tableColumn id="4" name="Résultat obtenu" dataDxfId="62"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A13:D27" totalsRowShown="0" headerRowDxfId="53" headerRowBorderDxfId="59" tableBorderDxfId="60" totalsRowBorderDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A13:D27" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
   <autoFilter ref="A13:D27"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Numéro " dataDxfId="57"/>
-    <tableColumn id="2" name="Manipulations" dataDxfId="56"/>
-    <tableColumn id="3" name="Résultat attendu" dataDxfId="55"/>
-    <tableColumn id="4" name="Résultat obtenu" dataDxfId="54"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tableau312" displayName="Tableau312" ref="A4:D10" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
-  <autoFilter ref="A4:D10"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Numéro " dataDxfId="11"/>
-    <tableColumn id="2" name="Champ Traité --&gt; Valeur" dataDxfId="10"/>
-    <tableColumn id="3" name="Résultat attendu" dataDxfId="9"/>
-    <tableColumn id="4" name="Résultat obtenu" dataDxfId="8"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tableau413" displayName="Tableau413" ref="A13:D17" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
-  <autoFilter ref="A13:D17"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Numéro " dataDxfId="3"/>
     <tableColumn id="2" name="Manipulations" dataDxfId="2"/>
@@ -1946,27 +1992,53 @@
 </table>
 </file>
 
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tableau312" displayName="Tableau312" ref="A4:D12" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+  <autoFilter ref="A4:D12"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Numéro " dataDxfId="35"/>
+    <tableColumn id="2" name="Champ Traité --&gt; Valeur" dataDxfId="34"/>
+    <tableColumn id="3" name="Résultat attendu" dataDxfId="33"/>
+    <tableColumn id="4" name="Résultat obtenu" dataDxfId="32"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tableau413" displayName="Tableau413" ref="A15:D19" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29" totalsRowBorderDxfId="28">
+  <autoFilter ref="A15:D19"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Numéro " dataDxfId="27"/>
+    <tableColumn id="2" name="Manipulations" dataDxfId="26"/>
+    <tableColumn id="3" name="Résultat attendu" dataDxfId="25"/>
+    <tableColumn id="4" name="Résultat obtenu" dataDxfId="24"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tableau9" displayName="Tableau9" ref="A4:D9" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="30" tableBorderDxfId="31" totalsRowBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tableau9" displayName="Tableau9" ref="A4:D9" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20">
   <autoFilter ref="A4:D9"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Numéro" dataDxfId="28"/>
-    <tableColumn id="2" name="Champ Traité --&gt; Valeur" dataDxfId="27"/>
-    <tableColumn id="3" name="Résultat attendu" dataDxfId="26"/>
-    <tableColumn id="4" name="Résultat obtenu" dataDxfId="25"/>
+    <tableColumn id="1" name="Numéro" dataDxfId="19"/>
+    <tableColumn id="2" name="Champ Traité --&gt; Valeur" dataDxfId="18"/>
+    <tableColumn id="3" name="Résultat attendu" dataDxfId="17"/>
+    <tableColumn id="4" name="Résultat obtenu" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tableau10" displayName="Tableau10" ref="A12:D33" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="22" tableBorderDxfId="23" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tableau10" displayName="Tableau10" ref="A12:D33" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="A12:D33"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Numéro" dataDxfId="20"/>
-    <tableColumn id="2" name="Manipulations" dataDxfId="19"/>
-    <tableColumn id="3" name="Résultat attendu" dataDxfId="18"/>
-    <tableColumn id="4" name="Résultat obtenu" dataDxfId="17"/>
+    <tableColumn id="1" name="Numéro" dataDxfId="11"/>
+    <tableColumn id="2" name="Manipulations" dataDxfId="10"/>
+    <tableColumn id="3" name="Résultat attendu" dataDxfId="9"/>
+    <tableColumn id="4" name="Résultat obtenu" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2251,40 +2323,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2462,45 +2534,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="8" t="s">
         <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2509,12 +2581,12 @@
       <c r="C5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="8" t="s">
         <v>81</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2523,12 +2595,12 @@
       <c r="C6" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="9" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2537,12 +2609,12 @@
       <c r="C7" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="9" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="8" t="s">
         <v>83</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2551,12 +2623,12 @@
       <c r="C8" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="9" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="8" t="s">
         <v>84</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2565,12 +2637,12 @@
       <c r="C9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="8" t="s">
         <v>85</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2579,12 +2651,12 @@
       <c r="C10" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="9" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="8" t="s">
         <v>86</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2593,7 +2665,7 @@
       <c r="C11" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="9" t="s">
         <v>126</v>
       </c>
       <c r="E11" t="s">
@@ -2601,7 +2673,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="8" t="s">
         <v>87</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2610,12 +2682,12 @@
       <c r="C12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="8" t="s">
         <v>109</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2624,12 +2696,12 @@
       <c r="C13" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="8" t="s">
         <v>110</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2638,12 +2710,12 @@
       <c r="C14" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="9" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="8" t="s">
         <v>111</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2652,12 +2724,12 @@
       <c r="C15" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="8" t="s">
         <v>112</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2666,12 +2738,12 @@
       <c r="C16" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="9" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="8" t="s">
         <v>113</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2680,12 +2752,12 @@
       <c r="C17" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="8" t="s">
         <v>114</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2694,12 +2766,12 @@
       <c r="C18" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="9" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="8" t="s">
         <v>115</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2708,21 +2780,21 @@
       <c r="C19" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="15" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2733,86 +2805,86 @@
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="18" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18" t="s">
         <v>135</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="23"/>
+      <c r="D25" s="19"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18" t="s">
         <v>136</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="23"/>
+      <c r="D26" s="19"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22" t="s">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18" t="s">
         <v>137</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="23"/>
+      <c r="D27" s="19"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22" t="s">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="21"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="17"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="21"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="17"/>
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -2821,12 +2893,12 @@
       <c r="D30" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E30" s="21"/>
+      <c r="E30" s="17"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -2835,10 +2907,10 @@
       <c r="B32" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="18" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2869,10 +2941,10 @@
       <c r="B36" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="18" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2903,10 +2975,10 @@
       <c r="B40" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="18" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2947,14 +3019,14 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18" t="s">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="24" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2979,7 +3051,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2991,45 +3063,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="8" t="s">
         <v>156</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3038,12 +3110,12 @@
       <c r="C5" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="9" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="8" t="s">
         <v>163</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3052,12 +3124,12 @@
       <c r="C6" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="9" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="8" t="s">
         <v>164</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -3066,12 +3138,12 @@
       <c r="C7" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="9" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="8" t="s">
         <v>165</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -3080,12 +3152,12 @@
       <c r="C8" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="9" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="8" t="s">
         <v>166</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -3094,21 +3166,21 @@
       <c r="C9" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="9" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="15" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3119,174 +3191,174 @@
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="21" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="18" t="s">
         <v>177</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="13"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="22" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="22" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="13"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="21" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="22" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="18" t="s">
         <v>183</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="28"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="22" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="18" t="s">
         <v>184</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="13"/>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="18" t="s">
         <v>187</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="9" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="13"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="18" t="s">
         <v>176</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="9" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="9" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="23" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="9" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="15" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3307,10 +3379,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3322,185 +3394,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="8" t="s">
         <v>191</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>157</v>
+        <v>203</v>
+      </c>
+      <c r="C5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="8" t="s">
         <v>192</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>129</v>
+        <v>221</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="8" t="s">
         <v>193</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>159</v>
+        <v>119</v>
+      </c>
+      <c r="C7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="8" t="s">
         <v>194</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>161</v>
+        <v>220</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="8" t="s">
         <v>195</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="C10" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B15" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C15" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D15" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="28"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="13"/>
-    </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="29"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="21"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="13"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="22"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
@@ -3551,45 +3651,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="8" t="s">
         <v>103</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3598,12 +3698,12 @@
       <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="25" t="s">
         <v>104</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -3612,12 +3712,12 @@
       <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="26" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="8" t="s">
         <v>105</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -3626,12 +3726,12 @@
       <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="25" t="s">
         <v>106</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -3640,48 +3740,48 @@
       <c r="C8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="26" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="8" t="s">
         <v>98</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -3690,43 +3790,43 @@
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="13"/>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="13"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="13"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="23" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3737,7 +3837,7 @@
       <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -3746,43 +3846,43 @@
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="13"/>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="13"/>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="13"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="23" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3793,7 +3893,7 @@
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="8" t="s">
         <v>100</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -3802,43 +3902,43 @@
       <c r="C25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="13"/>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="13"/>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="13"/>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="23" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3849,7 +3949,7 @@
       <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="8" t="s">
         <v>101</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -3858,27 +3958,27 @@
       <c r="C31" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="13"/>
+      <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18" t="s">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3899,10 +3999,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" activeCellId="1" sqref="A25 A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3912,22 +4012,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
@@ -3938,172 +4038,214 @@
       <c r="A4" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>157</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>159</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>161</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>186</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>189</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+      <c r="A18" t="s">
+        <v>210</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>197</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+        <v>216</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>198</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>197</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>198</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>199</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="B23" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>213</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>215</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="17">
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B4:D4"/>
@@ -4112,13 +4254,10 @@
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
